--- a/추가피처데이터/투자자별매매동향(수급)/377300.xlsx
+++ b/추가피처데이터/투자자별매매동향(수급)/377300.xlsx
@@ -1589,43 +1589,43 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.3515625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="20" max="20" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="21" max="21" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="22" max="22" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="32" max="32" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="33" max="33" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="34" max="34" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -1857,94 +1857,94 @@
         <v>18</v>
       </c>
       <c r="B6" s="5">
-        <v>1938</v>
+        <v>111720</v>
       </c>
       <c r="C6" s="7">
-        <v>1039</v>
+        <v>59803</v>
       </c>
       <c r="D6" s="9">
-        <v>900</v>
+        <v>51917</v>
       </c>
       <c r="E6" s="11">
-        <v>1477</v>
+        <v>84118</v>
       </c>
       <c r="F6" s="13">
-        <v>2676</v>
+        <v>153694</v>
       </c>
       <c r="G6" s="15">
-        <v>-1199</v>
+        <v>-69576</v>
       </c>
       <c r="H6" s="17">
-        <v>1237</v>
+        <v>71002</v>
       </c>
       <c r="I6" s="19">
-        <v>912</v>
+        <v>51877</v>
       </c>
       <c r="J6" s="21">
-        <v>325</v>
+        <v>19125</v>
       </c>
       <c r="K6" s="23">
-        <v>472</v>
+        <v>26957</v>
       </c>
       <c r="L6" s="25">
-        <v>500</v>
+        <v>28359</v>
       </c>
       <c r="M6" s="27">
-        <v>-28</v>
+        <v>-1402</v>
       </c>
       <c r="N6" s="29">
-        <v>54</v>
+        <v>3095</v>
       </c>
       <c r="O6" s="31">
-        <v>30</v>
+        <v>1708</v>
       </c>
       <c r="P6" s="33">
-        <v>24</v>
+        <v>1387</v>
       </c>
       <c r="Q6" s="35">
-        <v>128</v>
+        <v>7404</v>
       </c>
       <c r="R6" s="37">
-        <v>32</v>
+        <v>1840</v>
       </c>
       <c r="S6" s="39">
-        <v>96</v>
+        <v>5564</v>
       </c>
       <c r="T6" s="41">
         <v>0</v>
       </c>
       <c r="U6" s="43">
+        <v>56</v>
+      </c>
+      <c r="V6" s="45">
+        <v>-56</v>
+      </c>
+      <c r="W6" s="47">
         <v>1</v>
       </c>
-      <c r="V6" s="45">
-        <v>-1</v>
-      </c>
-      <c r="W6" s="47">
-        <v>0</v>
-      </c>
       <c r="X6" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="51">
         <v>0</v>
       </c>
       <c r="Z6" s="53">
-        <v>381</v>
+        <v>21888</v>
       </c>
       <c r="AA6" s="55">
-        <v>240</v>
+        <v>13675</v>
       </c>
       <c r="AB6" s="57">
-        <v>140</v>
+        <v>8213</v>
       </c>
       <c r="AC6" s="59">
-        <v>203</v>
+        <v>11657</v>
       </c>
       <c r="AD6" s="61">
-        <v>109</v>
+        <v>6239</v>
       </c>
       <c r="AE6" s="63">
-        <v>94</v>
+        <v>5418</v>
       </c>
       <c r="AF6" s="65">
         <v>0</v>
@@ -1956,16 +1956,16 @@
         <v>0</v>
       </c>
       <c r="AI6" s="71">
-        <v>6</v>
+        <v>369</v>
       </c>
       <c r="AJ6" s="73">
-        <v>32</v>
+        <v>1836</v>
       </c>
       <c r="AK6" s="75">
-        <v>-25</v>
+        <v>-1467</v>
       </c>
       <c r="AL6" s="77">
-        <v>4659</v>
+        <v>267209</v>
       </c>
     </row>
     <row r="7">
@@ -1973,94 +1973,94 @@
         <v>19</v>
       </c>
       <c r="B7" s="5">
-        <v>2103</v>
+        <v>118405</v>
       </c>
       <c r="C7" s="7">
-        <v>1914</v>
+        <v>106946</v>
       </c>
       <c r="D7" s="9">
-        <v>189</v>
+        <v>11459</v>
       </c>
       <c r="E7" s="11">
-        <v>3433</v>
+        <v>192552</v>
       </c>
       <c r="F7" s="13">
-        <v>4139</v>
+        <v>233901</v>
       </c>
       <c r="G7" s="15">
-        <v>-706</v>
+        <v>-41349</v>
       </c>
       <c r="H7" s="17">
-        <v>1740</v>
+        <v>98000</v>
       </c>
       <c r="I7" s="19">
-        <v>1205</v>
+        <v>67075</v>
       </c>
       <c r="J7" s="21">
-        <v>535</v>
+        <v>30925</v>
       </c>
       <c r="K7" s="23">
-        <v>477</v>
+        <v>26625</v>
       </c>
       <c r="L7" s="25">
-        <v>525</v>
+        <v>29280</v>
       </c>
       <c r="M7" s="27">
-        <v>-48</v>
+        <v>-2655</v>
       </c>
       <c r="N7" s="29">
-        <v>67</v>
+        <v>3826</v>
       </c>
       <c r="O7" s="31">
-        <v>32</v>
+        <v>1813</v>
       </c>
       <c r="P7" s="33">
-        <v>36</v>
+        <v>2013</v>
       </c>
       <c r="Q7" s="35">
-        <v>96</v>
+        <v>5484</v>
       </c>
       <c r="R7" s="37">
-        <v>54</v>
+        <v>2993</v>
       </c>
       <c r="S7" s="39">
-        <v>43</v>
+        <v>2491</v>
       </c>
       <c r="T7" s="41">
+        <v>56</v>
+      </c>
+      <c r="U7" s="43">
+        <v>0</v>
+      </c>
+      <c r="V7" s="45">
+        <v>56</v>
+      </c>
+      <c r="W7" s="47">
+        <v>75</v>
+      </c>
+      <c r="X7" s="49">
         <v>1</v>
       </c>
-      <c r="U7" s="43">
-        <v>0</v>
-      </c>
-      <c r="V7" s="45">
-        <v>1</v>
-      </c>
-      <c r="W7" s="47">
-        <v>1</v>
-      </c>
-      <c r="X7" s="49">
-        <v>0</v>
-      </c>
       <c r="Y7" s="51">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="Z7" s="53">
-        <v>635</v>
+        <v>35379</v>
       </c>
       <c r="AA7" s="55">
-        <v>313</v>
+        <v>17434</v>
       </c>
       <c r="AB7" s="57">
-        <v>322</v>
+        <v>17944</v>
       </c>
       <c r="AC7" s="59">
-        <v>461</v>
+        <v>26556</v>
       </c>
       <c r="AD7" s="61">
-        <v>281</v>
+        <v>15553</v>
       </c>
       <c r="AE7" s="63">
-        <v>180</v>
+        <v>11002</v>
       </c>
       <c r="AF7" s="65">
         <v>0</v>
@@ -2072,16 +2072,16 @@
         <v>0</v>
       </c>
       <c r="AI7" s="71">
-        <v>21</v>
+        <v>1144</v>
       </c>
       <c r="AJ7" s="73">
-        <v>39</v>
+        <v>2179</v>
       </c>
       <c r="AK7" s="75">
-        <v>-18</v>
+        <v>-1035</v>
       </c>
       <c r="AL7" s="77">
-        <v>7297</v>
+        <v>410101</v>
       </c>
     </row>
     <row r="8">
@@ -2089,94 +2089,94 @@
         <v>20</v>
       </c>
       <c r="B8" s="5">
-        <v>2893</v>
+        <v>173344</v>
       </c>
       <c r="C8" s="7">
-        <v>2986</v>
+        <v>176448</v>
       </c>
       <c r="D8" s="9">
-        <v>-94</v>
+        <v>-3103</v>
       </c>
       <c r="E8" s="11">
-        <v>4889</v>
+        <v>287369</v>
       </c>
       <c r="F8" s="13">
-        <v>4892</v>
+        <v>290730</v>
       </c>
       <c r="G8" s="15">
-        <v>-4</v>
+        <v>-3361</v>
       </c>
       <c r="H8" s="17">
-        <v>1446</v>
+        <v>86011</v>
       </c>
       <c r="I8" s="19">
-        <v>1365</v>
+        <v>80506</v>
       </c>
       <c r="J8" s="21">
-        <v>80</v>
+        <v>5505</v>
       </c>
       <c r="K8" s="23">
-        <v>766</v>
+        <v>45353</v>
       </c>
       <c r="L8" s="25">
-        <v>585</v>
+        <v>34623</v>
       </c>
       <c r="M8" s="27">
-        <v>180</v>
+        <v>10730</v>
       </c>
       <c r="N8" s="29">
-        <v>40</v>
+        <v>2349</v>
       </c>
       <c r="O8" s="31">
-        <v>36</v>
+        <v>2138</v>
       </c>
       <c r="P8" s="33">
-        <v>4</v>
+        <v>211</v>
       </c>
       <c r="Q8" s="35">
+        <v>5077</v>
+      </c>
+      <c r="R8" s="37">
+        <v>6208</v>
+      </c>
+      <c r="S8" s="39">
+        <v>-1131</v>
+      </c>
+      <c r="T8" s="41">
+        <v>14</v>
+      </c>
+      <c r="U8" s="43">
         <v>85</v>
       </c>
-      <c r="R8" s="37">
-        <v>106</v>
-      </c>
-      <c r="S8" s="39">
-        <v>-21</v>
-      </c>
-      <c r="T8" s="41">
-        <v>0</v>
-      </c>
-      <c r="U8" s="43">
-        <v>2</v>
-      </c>
       <c r="V8" s="45">
-        <v>-1</v>
+        <v>-71</v>
       </c>
       <c r="W8" s="47">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X8" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="51">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z8" s="53">
-        <v>332</v>
+        <v>19918</v>
       </c>
       <c r="AA8" s="55">
-        <v>406</v>
+        <v>23987</v>
       </c>
       <c r="AB8" s="57">
-        <v>-73</v>
+        <v>-4069</v>
       </c>
       <c r="AC8" s="59">
-        <v>222</v>
+        <v>13284</v>
       </c>
       <c r="AD8" s="61">
-        <v>230</v>
+        <v>13464</v>
       </c>
       <c r="AE8" s="63">
-        <v>-8</v>
+        <v>-180</v>
       </c>
       <c r="AF8" s="65">
         <v>0</v>
@@ -2188,16 +2188,16 @@
         <v>0</v>
       </c>
       <c r="AI8" s="71">
-        <v>65</v>
+        <v>3865</v>
       </c>
       <c r="AJ8" s="73">
-        <v>48</v>
+        <v>2906</v>
       </c>
       <c r="AK8" s="75">
-        <v>17</v>
+        <v>959</v>
       </c>
       <c r="AL8" s="77">
-        <v>9292</v>
+        <v>550589</v>
       </c>
     </row>
     <row r="9">
@@ -2205,94 +2205,94 @@
         <v>21</v>
       </c>
       <c r="B9" s="5">
-        <v>6820</v>
+        <v>423304</v>
       </c>
       <c r="C9" s="7">
-        <v>6024</v>
+        <v>373632</v>
       </c>
       <c r="D9" s="9">
-        <v>796</v>
+        <v>49672</v>
       </c>
       <c r="E9" s="11">
-        <v>7826</v>
+        <v>484726</v>
       </c>
       <c r="F9" s="13">
-        <v>7973</v>
+        <v>495673</v>
       </c>
       <c r="G9" s="15">
-        <v>-146</v>
+        <v>-10947</v>
       </c>
       <c r="H9" s="17">
-        <v>1582</v>
+        <v>98609</v>
       </c>
       <c r="I9" s="19">
-        <v>2249</v>
+        <v>138379</v>
       </c>
       <c r="J9" s="21">
-        <v>-667</v>
+        <v>-39771</v>
       </c>
       <c r="K9" s="23">
-        <v>677</v>
+        <v>41873</v>
       </c>
       <c r="L9" s="25">
-        <v>936</v>
+        <v>57583</v>
       </c>
       <c r="M9" s="27">
-        <v>-259</v>
+        <v>-15711</v>
       </c>
       <c r="N9" s="29">
-        <v>62</v>
+        <v>3965</v>
       </c>
       <c r="O9" s="31">
-        <v>131</v>
+        <v>7996</v>
       </c>
       <c r="P9" s="33">
-        <v>-69</v>
+        <v>-4031</v>
       </c>
       <c r="Q9" s="35">
-        <v>171</v>
+        <v>10698</v>
       </c>
       <c r="R9" s="37">
-        <v>153</v>
+        <v>9202</v>
       </c>
       <c r="S9" s="39">
-        <v>19</v>
+        <v>1497</v>
       </c>
       <c r="T9" s="41">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="U9" s="43">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="V9" s="45">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="W9" s="47">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="X9" s="49">
-        <v>3</v>
+        <v>189</v>
       </c>
       <c r="Y9" s="51">
-        <v>-2</v>
+        <v>-92</v>
       </c>
       <c r="Z9" s="53">
-        <v>520</v>
+        <v>32653</v>
       </c>
       <c r="AA9" s="55">
-        <v>600</v>
+        <v>37082</v>
       </c>
       <c r="AB9" s="57">
-        <v>-81</v>
+        <v>-4429</v>
       </c>
       <c r="AC9" s="59">
-        <v>149</v>
+        <v>9202</v>
       </c>
       <c r="AD9" s="61">
-        <v>424</v>
+        <v>26238</v>
       </c>
       <c r="AE9" s="63">
-        <v>-275</v>
+        <v>-17036</v>
       </c>
       <c r="AF9" s="65">
         <v>0</v>
@@ -2304,16 +2304,16 @@
         <v>0</v>
       </c>
       <c r="AI9" s="71">
-        <v>56</v>
+        <v>3420</v>
       </c>
       <c r="AJ9" s="73">
-        <v>39</v>
+        <v>2374</v>
       </c>
       <c r="AK9" s="75">
-        <v>17</v>
+        <v>1046</v>
       </c>
       <c r="AL9" s="77">
-        <v>16284</v>
+        <v>1010058</v>
       </c>
     </row>
     <row r="10">
@@ -2321,94 +2321,94 @@
         <v>22</v>
       </c>
       <c r="B10" s="5">
-        <v>4391</v>
+        <v>286666</v>
       </c>
       <c r="C10" s="7">
-        <v>4426</v>
+        <v>289259</v>
       </c>
       <c r="D10" s="9">
-        <v>-36</v>
+        <v>-2594</v>
       </c>
       <c r="E10" s="11">
-        <v>12959</v>
+        <v>853069</v>
       </c>
       <c r="F10" s="13">
-        <v>12854</v>
+        <v>844803</v>
       </c>
       <c r="G10" s="15">
-        <v>104</v>
+        <v>8266</v>
       </c>
       <c r="H10" s="17">
-        <v>2898</v>
+        <v>188068</v>
       </c>
       <c r="I10" s="19">
-        <v>2959</v>
+        <v>193293</v>
       </c>
       <c r="J10" s="21">
-        <v>-61</v>
+        <v>-5225</v>
       </c>
       <c r="K10" s="23">
-        <v>954</v>
+        <v>62383</v>
       </c>
       <c r="L10" s="25">
-        <v>971</v>
+        <v>63639</v>
       </c>
       <c r="M10" s="27">
-        <v>-17</v>
+        <v>-1256</v>
       </c>
       <c r="N10" s="29">
-        <v>131</v>
+        <v>8634</v>
       </c>
       <c r="O10" s="31">
-        <v>80</v>
+        <v>5261</v>
       </c>
       <c r="P10" s="33">
-        <v>51</v>
+        <v>3373</v>
       </c>
       <c r="Q10" s="35">
-        <v>423</v>
+        <v>27430</v>
       </c>
       <c r="R10" s="37">
-        <v>221</v>
+        <v>14646</v>
       </c>
       <c r="S10" s="39">
-        <v>202</v>
+        <v>12783</v>
       </c>
       <c r="T10" s="41">
-        <v>3</v>
+        <v>208</v>
       </c>
       <c r="U10" s="43">
-        <v>2</v>
+        <v>157</v>
       </c>
       <c r="V10" s="45">
+        <v>50</v>
+      </c>
+      <c r="W10" s="47">
         <v>1</v>
       </c>
-      <c r="W10" s="47">
-        <v>0</v>
-      </c>
       <c r="X10" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="51">
         <v>0</v>
       </c>
       <c r="Z10" s="53">
-        <v>871</v>
+        <v>55984</v>
       </c>
       <c r="AA10" s="55">
-        <v>875</v>
+        <v>56411</v>
       </c>
       <c r="AB10" s="57">
-        <v>-3</v>
+        <v>-427</v>
       </c>
       <c r="AC10" s="59">
-        <v>515</v>
+        <v>33430</v>
       </c>
       <c r="AD10" s="61">
-        <v>810</v>
+        <v>53178</v>
       </c>
       <c r="AE10" s="63">
-        <v>-295</v>
+        <v>-19749</v>
       </c>
       <c r="AF10" s="65">
         <v>0</v>
@@ -2420,16 +2420,16 @@
         <v>0</v>
       </c>
       <c r="AI10" s="71">
-        <v>76</v>
+        <v>5003</v>
       </c>
       <c r="AJ10" s="73">
-        <v>84</v>
+        <v>5451</v>
       </c>
       <c r="AK10" s="75">
-        <v>-7</v>
+        <v>-448</v>
       </c>
       <c r="AL10" s="77">
-        <v>20323</v>
+        <v>1332806</v>
       </c>
     </row>
     <row r="11">
@@ -2437,94 +2437,94 @@
         <v>23</v>
       </c>
       <c r="B11" s="5">
-        <v>5558</v>
+        <v>338970</v>
       </c>
       <c r="C11" s="7">
-        <v>5226</v>
+        <v>319314</v>
       </c>
       <c r="D11" s="9">
-        <v>333</v>
+        <v>19656</v>
       </c>
       <c r="E11" s="11">
-        <v>21935</v>
+        <v>1355137</v>
       </c>
       <c r="F11" s="13">
-        <v>22506</v>
+        <v>1389844</v>
       </c>
       <c r="G11" s="15">
-        <v>-571</v>
+        <v>-34708</v>
       </c>
       <c r="H11" s="17">
-        <v>3097</v>
+        <v>189735</v>
       </c>
       <c r="I11" s="19">
-        <v>2839</v>
+        <v>173423</v>
       </c>
       <c r="J11" s="21">
-        <v>257</v>
+        <v>16312</v>
       </c>
       <c r="K11" s="23">
-        <v>1629</v>
+        <v>99708</v>
       </c>
       <c r="L11" s="25">
-        <v>1507</v>
+        <v>92449</v>
       </c>
       <c r="M11" s="27">
-        <v>122</v>
+        <v>7259</v>
       </c>
       <c r="N11" s="29">
-        <v>83</v>
+        <v>5080</v>
       </c>
       <c r="O11" s="31">
-        <v>53</v>
+        <v>3218</v>
       </c>
       <c r="P11" s="33">
-        <v>30</v>
+        <v>1862</v>
       </c>
       <c r="Q11" s="35">
-        <v>193</v>
+        <v>12004</v>
       </c>
       <c r="R11" s="37">
-        <v>176</v>
+        <v>10786</v>
       </c>
       <c r="S11" s="39">
-        <v>18</v>
+        <v>1218</v>
       </c>
       <c r="T11" s="41">
         <v>0</v>
       </c>
       <c r="U11" s="43">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="V11" s="45">
-        <v>-1</v>
+        <v>-50</v>
       </c>
       <c r="W11" s="47">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="X11" s="49">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="Y11" s="51">
-        <v>-1</v>
+        <v>-53</v>
       </c>
       <c r="Z11" s="53">
-        <v>994</v>
+        <v>60885</v>
       </c>
       <c r="AA11" s="55">
-        <v>822</v>
+        <v>50039</v>
       </c>
       <c r="AB11" s="57">
-        <v>173</v>
+        <v>10845</v>
       </c>
       <c r="AC11" s="59">
-        <v>196</v>
+        <v>12022</v>
       </c>
       <c r="AD11" s="61">
-        <v>280</v>
+        <v>16791</v>
       </c>
       <c r="AE11" s="63">
-        <v>-84</v>
+        <v>-4769</v>
       </c>
       <c r="AF11" s="65">
         <v>0</v>
@@ -2536,16 +2536,16 @@
         <v>0</v>
       </c>
       <c r="AI11" s="71">
-        <v>87</v>
+        <v>5461</v>
       </c>
       <c r="AJ11" s="73">
-        <v>106</v>
+        <v>6722</v>
       </c>
       <c r="AK11" s="75">
-        <v>-19</v>
+        <v>-1260</v>
       </c>
       <c r="AL11" s="77">
-        <v>30676</v>
+        <v>1889303</v>
       </c>
     </row>
     <row r="12">
@@ -2553,94 +2553,94 @@
         <v>24</v>
       </c>
       <c r="B12" s="5">
-        <v>8241</v>
+        <v>446646</v>
       </c>
       <c r="C12" s="7">
-        <v>8336</v>
+        <v>444285</v>
       </c>
       <c r="D12" s="9">
-        <v>-95</v>
+        <v>2361</v>
       </c>
       <c r="E12" s="11">
-        <v>35143</v>
+        <v>1998032</v>
       </c>
       <c r="F12" s="13">
-        <v>34364</v>
+        <v>1954314</v>
       </c>
       <c r="G12" s="15">
-        <v>780</v>
+        <v>43718</v>
       </c>
       <c r="H12" s="17">
-        <v>4012</v>
+        <v>210253</v>
       </c>
       <c r="I12" s="19">
-        <v>4664</v>
+        <v>255480</v>
       </c>
       <c r="J12" s="21">
-        <v>-652</v>
+        <v>-45227</v>
       </c>
       <c r="K12" s="23">
-        <v>1859</v>
+        <v>102694</v>
       </c>
       <c r="L12" s="25">
-        <v>1912</v>
+        <v>105201</v>
       </c>
       <c r="M12" s="27">
-        <v>-53</v>
+        <v>-2507</v>
       </c>
       <c r="N12" s="29">
-        <v>139</v>
+        <v>6947</v>
       </c>
       <c r="O12" s="31">
-        <v>150</v>
+        <v>8155</v>
       </c>
       <c r="P12" s="33">
-        <v>-11</v>
+        <v>-1208</v>
       </c>
       <c r="Q12" s="35">
-        <v>370</v>
+        <v>19113</v>
       </c>
       <c r="R12" s="37">
-        <v>395</v>
+        <v>22750</v>
       </c>
       <c r="S12" s="39">
-        <v>-25</v>
+        <v>-3636</v>
       </c>
       <c r="T12" s="41">
-        <v>3</v>
+        <v>170</v>
       </c>
       <c r="U12" s="43">
         <v>0</v>
       </c>
       <c r="V12" s="45">
-        <v>3</v>
+        <v>170</v>
       </c>
       <c r="W12" s="47">
-        <v>3</v>
+        <v>181</v>
       </c>
       <c r="X12" s="49">
-        <v>3</v>
+        <v>214</v>
       </c>
       <c r="Y12" s="51">
-        <v>0</v>
+        <v>-33</v>
       </c>
       <c r="Z12" s="53">
-        <v>1122</v>
+        <v>55729</v>
       </c>
       <c r="AA12" s="55">
-        <v>1498</v>
+        <v>82833</v>
       </c>
       <c r="AB12" s="57">
-        <v>-376</v>
+        <v>-27104</v>
       </c>
       <c r="AC12" s="59">
-        <v>515</v>
+        <v>25419</v>
       </c>
       <c r="AD12" s="61">
-        <v>706</v>
+        <v>36326</v>
       </c>
       <c r="AE12" s="63">
-        <v>-191</v>
+        <v>-10907</v>
       </c>
       <c r="AF12" s="65">
         <v>0</v>
@@ -2652,16 +2652,16 @@
         <v>0</v>
       </c>
       <c r="AI12" s="71">
-        <v>241</v>
+        <v>14084</v>
       </c>
       <c r="AJ12" s="73">
-        <v>275</v>
+        <v>14936</v>
       </c>
       <c r="AK12" s="75">
-        <v>-33</v>
+        <v>-852</v>
       </c>
       <c r="AL12" s="77">
-        <v>47638</v>
+        <v>2669015</v>
       </c>
     </row>
     <row r="13">
@@ -2669,58 +2669,58 @@
         <v>25</v>
       </c>
       <c r="B13" s="5">
-        <v>4743</v>
+        <v>180076</v>
       </c>
       <c r="C13" s="7">
-        <v>5903</v>
+        <v>227827</v>
       </c>
       <c r="D13" s="9">
-        <v>-1160</v>
+        <v>-47751</v>
       </c>
       <c r="E13" s="11">
-        <v>8096</v>
+        <v>308249</v>
       </c>
       <c r="F13" s="13">
-        <v>6844</v>
+        <v>256778</v>
       </c>
       <c r="G13" s="15">
-        <v>1252</v>
+        <v>51471</v>
       </c>
       <c r="H13" s="17">
-        <v>2243</v>
+        <v>83990</v>
       </c>
       <c r="I13" s="19">
-        <v>2405</v>
+        <v>90276</v>
       </c>
       <c r="J13" s="21">
-        <v>-162</v>
+        <v>-6286</v>
       </c>
       <c r="K13" s="23">
-        <v>784</v>
+        <v>29282</v>
       </c>
       <c r="L13" s="25">
-        <v>778</v>
+        <v>30030</v>
       </c>
       <c r="M13" s="27">
-        <v>6</v>
+        <v>-747</v>
       </c>
       <c r="N13" s="29">
-        <v>50</v>
+        <v>1816</v>
       </c>
       <c r="O13" s="31">
-        <v>97</v>
+        <v>3569</v>
       </c>
       <c r="P13" s="33">
-        <v>-47</v>
+        <v>-1753</v>
       </c>
       <c r="Q13" s="35">
-        <v>125</v>
+        <v>4705</v>
       </c>
       <c r="R13" s="37">
-        <v>119</v>
+        <v>4563</v>
       </c>
       <c r="S13" s="39">
-        <v>7</v>
+        <v>142</v>
       </c>
       <c r="T13" s="41">
         <v>0</v>
@@ -2732,31 +2732,31 @@
         <v>0</v>
       </c>
       <c r="W13" s="47">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="X13" s="49">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="Y13" s="51">
-        <v>-1</v>
+        <v>-18</v>
       </c>
       <c r="Z13" s="53">
-        <v>687</v>
+        <v>25878</v>
       </c>
       <c r="AA13" s="55">
-        <v>821</v>
+        <v>29965</v>
       </c>
       <c r="AB13" s="57">
-        <v>-134</v>
+        <v>-4087</v>
       </c>
       <c r="AC13" s="59">
-        <v>595</v>
+        <v>22252</v>
       </c>
       <c r="AD13" s="61">
-        <v>589</v>
+        <v>22076</v>
       </c>
       <c r="AE13" s="63">
-        <v>7</v>
+        <v>177</v>
       </c>
       <c r="AF13" s="65">
         <v>0</v>
@@ -2768,16 +2768,16 @@
         <v>0</v>
       </c>
       <c r="AI13" s="71">
-        <v>89</v>
+        <v>3269</v>
       </c>
       <c r="AJ13" s="73">
-        <v>19</v>
+        <v>703</v>
       </c>
       <c r="AK13" s="75">
-        <v>69</v>
+        <v>2566</v>
       </c>
       <c r="AL13" s="77">
-        <v>15171</v>
+        <v>575584</v>
       </c>
     </row>
     <row r="14">
@@ -2785,94 +2785,94 @@
         <v>26</v>
       </c>
       <c r="B14" s="5">
-        <v>2312</v>
+        <v>132772</v>
       </c>
       <c r="C14" s="7">
-        <v>2255</v>
+        <v>129787</v>
       </c>
       <c r="D14" s="9">
-        <v>57</v>
+        <v>2985</v>
       </c>
       <c r="E14" s="11">
-        <v>3183</v>
+        <v>182696</v>
       </c>
       <c r="F14" s="13">
-        <v>2848</v>
+        <v>164072</v>
       </c>
       <c r="G14" s="15">
-        <v>334</v>
+        <v>18624</v>
       </c>
       <c r="H14" s="17">
-        <v>1473</v>
+        <v>85396</v>
       </c>
       <c r="I14" s="19">
-        <v>1869</v>
+        <v>107222</v>
       </c>
       <c r="J14" s="21">
-        <v>-396</v>
+        <v>-21826</v>
       </c>
       <c r="K14" s="23">
-        <v>659</v>
+        <v>38134</v>
       </c>
       <c r="L14" s="25">
-        <v>619</v>
+        <v>35416</v>
       </c>
       <c r="M14" s="27">
-        <v>41</v>
+        <v>2717</v>
       </c>
       <c r="N14" s="29">
-        <v>20</v>
+        <v>1178</v>
       </c>
       <c r="O14" s="31">
+        <v>4028</v>
+      </c>
+      <c r="P14" s="33">
+        <v>-2850</v>
+      </c>
+      <c r="Q14" s="35">
+        <v>8399</v>
+      </c>
+      <c r="R14" s="37">
+        <v>6970</v>
+      </c>
+      <c r="S14" s="39">
+        <v>1429</v>
+      </c>
+      <c r="T14" s="41">
+        <v>0</v>
+      </c>
+      <c r="U14" s="43">
+        <v>111</v>
+      </c>
+      <c r="V14" s="45">
+        <v>-111</v>
+      </c>
+      <c r="W14" s="47">
+        <v>0</v>
+      </c>
+      <c r="X14" s="49">
         <v>71</v>
       </c>
-      <c r="P14" s="33">
-        <v>-51</v>
-      </c>
-      <c r="Q14" s="35">
-        <v>143</v>
-      </c>
-      <c r="R14" s="37">
-        <v>123</v>
-      </c>
-      <c r="S14" s="39">
-        <v>20</v>
-      </c>
-      <c r="T14" s="41">
-        <v>0</v>
-      </c>
-      <c r="U14" s="43">
-        <v>2</v>
-      </c>
-      <c r="V14" s="45">
-        <v>-2</v>
-      </c>
-      <c r="W14" s="47">
-        <v>0</v>
-      </c>
-      <c r="X14" s="49">
-        <v>1</v>
-      </c>
       <c r="Y14" s="51">
-        <v>-1</v>
+        <v>-71</v>
       </c>
       <c r="Z14" s="53">
-        <v>301</v>
+        <v>17541</v>
       </c>
       <c r="AA14" s="55">
-        <v>672</v>
+        <v>38424</v>
       </c>
       <c r="AB14" s="57">
-        <v>-370</v>
+        <v>-20883</v>
       </c>
       <c r="AC14" s="59">
-        <v>349</v>
+        <v>20144</v>
       </c>
       <c r="AD14" s="61">
-        <v>381</v>
+        <v>22203</v>
       </c>
       <c r="AE14" s="63">
-        <v>-32</v>
+        <v>-2058</v>
       </c>
       <c r="AF14" s="65">
         <v>0</v>
@@ -2884,16 +2884,16 @@
         <v>0</v>
       </c>
       <c r="AI14" s="71">
-        <v>20</v>
+        <v>1088</v>
       </c>
       <c r="AJ14" s="73">
-        <v>15</v>
+        <v>870</v>
       </c>
       <c r="AK14" s="75">
-        <v>5</v>
+        <v>218</v>
       </c>
       <c r="AL14" s="77">
-        <v>6987</v>
+        <v>401952</v>
       </c>
     </row>
     <row r="15">
@@ -2901,94 +2901,94 @@
         <v>27</v>
       </c>
       <c r="B15" s="5">
-        <v>3903</v>
+        <v>267127</v>
       </c>
       <c r="C15" s="7">
-        <v>3818</v>
+        <v>261413</v>
       </c>
       <c r="D15" s="9">
-        <v>84</v>
+        <v>5714</v>
       </c>
       <c r="E15" s="11">
-        <v>7017</v>
+        <v>484569</v>
       </c>
       <c r="F15" s="13">
-        <v>6832</v>
+        <v>475971</v>
       </c>
       <c r="G15" s="15">
-        <v>185</v>
+        <v>8598</v>
       </c>
       <c r="H15" s="17">
-        <v>2052</v>
+        <v>143335</v>
       </c>
       <c r="I15" s="19">
-        <v>2330</v>
+        <v>158218</v>
       </c>
       <c r="J15" s="21">
-        <v>-278</v>
+        <v>-14883</v>
       </c>
       <c r="K15" s="23">
-        <v>483</v>
+        <v>33421</v>
       </c>
       <c r="L15" s="25">
-        <v>548</v>
+        <v>36781</v>
       </c>
       <c r="M15" s="27">
-        <v>-66</v>
+        <v>-3360</v>
       </c>
       <c r="N15" s="29">
-        <v>77</v>
+        <v>5440</v>
       </c>
       <c r="O15" s="31">
-        <v>91</v>
+        <v>6044</v>
       </c>
       <c r="P15" s="33">
-        <v>-13</v>
+        <v>-604</v>
       </c>
       <c r="Q15" s="35">
-        <v>246</v>
+        <v>17091</v>
       </c>
       <c r="R15" s="37">
-        <v>150</v>
+        <v>10063</v>
       </c>
       <c r="S15" s="39">
-        <v>96</v>
+        <v>7029</v>
       </c>
       <c r="T15" s="41">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="U15" s="43">
         <v>0</v>
       </c>
       <c r="V15" s="45">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="W15" s="47">
         <v>0</v>
       </c>
       <c r="X15" s="49">
-        <v>5</v>
+        <v>336</v>
       </c>
       <c r="Y15" s="51">
-        <v>-5</v>
+        <v>-336</v>
       </c>
       <c r="Z15" s="53">
-        <v>844</v>
+        <v>59960</v>
       </c>
       <c r="AA15" s="55">
-        <v>697</v>
+        <v>47481</v>
       </c>
       <c r="AB15" s="57">
-        <v>147</v>
+        <v>12479</v>
       </c>
       <c r="AC15" s="59">
-        <v>401</v>
+        <v>27367</v>
       </c>
       <c r="AD15" s="61">
-        <v>840</v>
+        <v>57514</v>
       </c>
       <c r="AE15" s="63">
-        <v>-438</v>
+        <v>-30147</v>
       </c>
       <c r="AF15" s="65">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="AI15" s="71">
-        <v>68</v>
+        <v>4695</v>
       </c>
       <c r="AJ15" s="73">
-        <v>59</v>
+        <v>4124</v>
       </c>
       <c r="AK15" s="75">
-        <v>9</v>
+        <v>571</v>
       </c>
       <c r="AL15" s="77">
-        <v>13040</v>
+        <v>899725</v>
       </c>
     </row>
     <row r="16">
@@ -3017,94 +3017,94 @@
         <v>28</v>
       </c>
       <c r="B16" s="5">
-        <v>2430</v>
+        <v>158987</v>
       </c>
       <c r="C16" s="7">
-        <v>2596</v>
+        <v>168826</v>
       </c>
       <c r="D16" s="9">
-        <v>-166</v>
+        <v>-9839</v>
       </c>
       <c r="E16" s="11">
-        <v>3909</v>
+        <v>253454</v>
       </c>
       <c r="F16" s="13">
-        <v>3980</v>
+        <v>259210</v>
       </c>
       <c r="G16" s="15">
-        <v>-71</v>
+        <v>-5756</v>
       </c>
       <c r="H16" s="17">
-        <v>1432</v>
+        <v>93605</v>
       </c>
       <c r="I16" s="19">
-        <v>1205</v>
+        <v>78655</v>
       </c>
       <c r="J16" s="21">
-        <v>227</v>
+        <v>14951</v>
       </c>
       <c r="K16" s="23">
-        <v>343</v>
+        <v>22227</v>
       </c>
       <c r="L16" s="25">
-        <v>409</v>
+        <v>26935</v>
       </c>
       <c r="M16" s="27">
-        <v>-67</v>
+        <v>-4708</v>
       </c>
       <c r="N16" s="29">
-        <v>81</v>
+        <v>5322</v>
       </c>
       <c r="O16" s="31">
-        <v>72</v>
+        <v>4677</v>
       </c>
       <c r="P16" s="33">
-        <v>8</v>
+        <v>645</v>
       </c>
       <c r="Q16" s="35">
-        <v>144</v>
+        <v>9373</v>
       </c>
       <c r="R16" s="37">
-        <v>98</v>
+        <v>6356</v>
       </c>
       <c r="S16" s="39">
-        <v>46</v>
+        <v>3017</v>
       </c>
       <c r="T16" s="41">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="U16" s="43">
         <v>0</v>
       </c>
       <c r="V16" s="45">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="W16" s="47">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="X16" s="49">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y16" s="51">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="Z16" s="53">
-        <v>598</v>
+        <v>39368</v>
       </c>
       <c r="AA16" s="55">
-        <v>323</v>
+        <v>21101</v>
       </c>
       <c r="AB16" s="57">
-        <v>275</v>
+        <v>18267</v>
       </c>
       <c r="AC16" s="59">
-        <v>266</v>
+        <v>17219</v>
       </c>
       <c r="AD16" s="61">
-        <v>303</v>
+        <v>19574</v>
       </c>
       <c r="AE16" s="63">
-        <v>-37</v>
+        <v>-2355</v>
       </c>
       <c r="AF16" s="65">
         <v>0</v>
@@ -3116,16 +3116,16 @@
         <v>0</v>
       </c>
       <c r="AI16" s="71">
-        <v>24</v>
+        <v>1513</v>
       </c>
       <c r="AJ16" s="73">
-        <v>13</v>
+        <v>869</v>
       </c>
       <c r="AK16" s="75">
-        <v>10</v>
+        <v>645</v>
       </c>
       <c r="AL16" s="77">
-        <v>7794</v>
+        <v>507559</v>
       </c>
     </row>
     <row r="17">
@@ -3133,94 +3133,94 @@
         <v>29</v>
       </c>
       <c r="B17" s="5">
-        <v>10291</v>
+        <v>878129</v>
       </c>
       <c r="C17" s="7">
-        <v>13728</v>
+        <v>1160941</v>
       </c>
       <c r="D17" s="9">
-        <v>-3437</v>
+        <v>-282812</v>
       </c>
       <c r="E17" s="11">
-        <v>9448</v>
+        <v>736192</v>
       </c>
       <c r="F17" s="13">
-        <v>6664</v>
+        <v>514432</v>
       </c>
       <c r="G17" s="15">
-        <v>2784</v>
+        <v>221760</v>
       </c>
       <c r="H17" s="17">
-        <v>2527</v>
+        <v>208799</v>
       </c>
       <c r="I17" s="19">
-        <v>1877</v>
+        <v>148394</v>
       </c>
       <c r="J17" s="21">
-        <v>649</v>
+        <v>60406</v>
       </c>
       <c r="K17" s="23">
-        <v>547</v>
+        <v>42020</v>
       </c>
       <c r="L17" s="25">
-        <v>514</v>
+        <v>41585</v>
       </c>
       <c r="M17" s="27">
-        <v>33</v>
+        <v>435</v>
       </c>
       <c r="N17" s="29">
-        <v>132</v>
+        <v>11377</v>
       </c>
       <c r="O17" s="31">
-        <v>114</v>
+        <v>9600</v>
       </c>
       <c r="P17" s="33">
-        <v>19</v>
+        <v>1777</v>
       </c>
       <c r="Q17" s="35">
-        <v>738</v>
+        <v>64933</v>
       </c>
       <c r="R17" s="37">
-        <v>205</v>
+        <v>16613</v>
       </c>
       <c r="S17" s="39">
-        <v>532</v>
+        <v>48320</v>
       </c>
       <c r="T17" s="41">
         <v>0</v>
       </c>
       <c r="U17" s="43">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="V17" s="45">
-        <v>-1</v>
+        <v>-122</v>
       </c>
       <c r="W17" s="47">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="X17" s="49">
-        <v>5</v>
+        <v>398</v>
       </c>
       <c r="Y17" s="51">
-        <v>-4</v>
+        <v>-298</v>
       </c>
       <c r="Z17" s="53">
-        <v>809</v>
+        <v>66804</v>
       </c>
       <c r="AA17" s="55">
-        <v>589</v>
+        <v>44514</v>
       </c>
       <c r="AB17" s="57">
-        <v>220</v>
+        <v>22290</v>
       </c>
       <c r="AC17" s="59">
-        <v>299</v>
+        <v>23566</v>
       </c>
       <c r="AD17" s="61">
-        <v>449</v>
+        <v>35562</v>
       </c>
       <c r="AE17" s="63">
-        <v>-149</v>
+        <v>-11996</v>
       </c>
       <c r="AF17" s="65">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="AI17" s="71">
-        <v>84</v>
+        <v>6708</v>
       </c>
       <c r="AJ17" s="73">
-        <v>80</v>
+        <v>6062</v>
       </c>
       <c r="AK17" s="75">
-        <v>4</v>
+        <v>646</v>
       </c>
       <c r="AL17" s="77">
-        <v>22350</v>
+        <v>1829829</v>
       </c>
     </row>
     <row r="18">
@@ -3249,94 +3249,94 @@
         <v>30</v>
       </c>
       <c r="B18" s="5">
-        <v>2476</v>
+        <v>238946</v>
       </c>
       <c r="C18" s="7">
-        <v>2448</v>
+        <v>233315</v>
       </c>
       <c r="D18" s="9">
-        <v>28</v>
+        <v>5631</v>
       </c>
       <c r="E18" s="11">
-        <v>3436</v>
+        <v>332912</v>
       </c>
       <c r="F18" s="13">
-        <v>3274</v>
+        <v>316702</v>
       </c>
       <c r="G18" s="15">
-        <v>161</v>
+        <v>16210</v>
       </c>
       <c r="H18" s="17">
-        <v>1629</v>
+        <v>158821</v>
       </c>
       <c r="I18" s="19">
-        <v>1750</v>
+        <v>173763</v>
       </c>
       <c r="J18" s="21">
-        <v>-121</v>
+        <v>-14942</v>
       </c>
       <c r="K18" s="23">
-        <v>367</v>
+        <v>35052</v>
       </c>
       <c r="L18" s="25">
-        <v>435</v>
+        <v>43038</v>
       </c>
       <c r="M18" s="27">
-        <v>-68</v>
+        <v>-7986</v>
       </c>
       <c r="N18" s="29">
-        <v>88</v>
+        <v>8720</v>
       </c>
       <c r="O18" s="31">
-        <v>76</v>
+        <v>7763</v>
       </c>
       <c r="P18" s="33">
-        <v>12</v>
+        <v>957</v>
       </c>
       <c r="Q18" s="35">
-        <v>145</v>
+        <v>14361</v>
       </c>
       <c r="R18" s="37">
-        <v>155</v>
+        <v>15375</v>
       </c>
       <c r="S18" s="39">
-        <v>-10</v>
+        <v>-1014</v>
       </c>
       <c r="T18" s="41">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="U18" s="43">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="V18" s="45">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="W18" s="47">
-        <v>5</v>
+        <v>415</v>
       </c>
       <c r="X18" s="49">
-        <v>28</v>
+        <v>2880</v>
       </c>
       <c r="Y18" s="51">
-        <v>-23</v>
+        <v>-2464</v>
       </c>
       <c r="Z18" s="53">
-        <v>811</v>
+        <v>79333</v>
       </c>
       <c r="AA18" s="55">
-        <v>441</v>
+        <v>43544</v>
       </c>
       <c r="AB18" s="57">
-        <v>370</v>
+        <v>35789</v>
       </c>
       <c r="AC18" s="59">
-        <v>212</v>
+        <v>20841</v>
       </c>
       <c r="AD18" s="61">
-        <v>614</v>
+        <v>61103</v>
       </c>
       <c r="AE18" s="63">
-        <v>-402</v>
+        <v>-40263</v>
       </c>
       <c r="AF18" s="65">
         <v>0</v>
@@ -3348,16 +3348,16 @@
         <v>0</v>
       </c>
       <c r="AI18" s="71">
-        <v>39</v>
+        <v>3845</v>
       </c>
       <c r="AJ18" s="73">
-        <v>108</v>
+        <v>10744</v>
       </c>
       <c r="AK18" s="75">
-        <v>-69</v>
+        <v>-6899</v>
       </c>
       <c r="AL18" s="77">
-        <v>7579</v>
+        <v>734523</v>
       </c>
     </row>
     <row r="19">
@@ -3365,94 +3365,94 @@
         <v>31</v>
       </c>
       <c r="B19" s="5">
-        <v>895</v>
+        <v>111744</v>
       </c>
       <c r="C19" s="7">
-        <v>1023</v>
+        <v>129960</v>
       </c>
       <c r="D19" s="9">
-        <v>-128</v>
+        <v>-18216</v>
       </c>
       <c r="E19" s="11">
-        <v>2274</v>
+        <v>288573</v>
       </c>
       <c r="F19" s="13">
-        <v>1562</v>
+        <v>196138</v>
       </c>
       <c r="G19" s="15">
-        <v>712</v>
+        <v>92435</v>
       </c>
       <c r="H19" s="17">
-        <v>574</v>
+        <v>72974</v>
       </c>
       <c r="I19" s="19">
-        <v>1168</v>
+        <v>148366</v>
       </c>
       <c r="J19" s="21">
-        <v>-594</v>
+        <v>-75391</v>
       </c>
       <c r="K19" s="23">
-        <v>183</v>
+        <v>23016</v>
       </c>
       <c r="L19" s="25">
-        <v>332</v>
+        <v>43128</v>
       </c>
       <c r="M19" s="27">
-        <v>-149</v>
+        <v>-20112</v>
       </c>
       <c r="N19" s="29">
-        <v>17</v>
+        <v>2153</v>
       </c>
       <c r="O19" s="31">
-        <v>88</v>
+        <v>10941</v>
       </c>
       <c r="P19" s="33">
-        <v>-71</v>
+        <v>-8787</v>
       </c>
       <c r="Q19" s="35">
-        <v>37</v>
+        <v>4778</v>
       </c>
       <c r="R19" s="37">
-        <v>152</v>
+        <v>18950</v>
       </c>
       <c r="S19" s="39">
-        <v>-115</v>
+        <v>-14172</v>
       </c>
       <c r="T19" s="41">
         <v>0</v>
       </c>
       <c r="U19" s="43">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="V19" s="45">
-        <v>0</v>
+        <v>-52</v>
       </c>
       <c r="W19" s="47">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="X19" s="49">
-        <v>21</v>
+        <v>2916</v>
       </c>
       <c r="Y19" s="51">
-        <v>-19</v>
+        <v>-2716</v>
       </c>
       <c r="Z19" s="53">
-        <v>273</v>
+        <v>35070</v>
       </c>
       <c r="AA19" s="55">
-        <v>300</v>
+        <v>38130</v>
       </c>
       <c r="AB19" s="57">
-        <v>-26</v>
+        <v>-3060</v>
       </c>
       <c r="AC19" s="59">
-        <v>61</v>
+        <v>7757</v>
       </c>
       <c r="AD19" s="61">
-        <v>275</v>
+        <v>34249</v>
       </c>
       <c r="AE19" s="63">
-        <v>-214</v>
+        <v>-26492</v>
       </c>
       <c r="AF19" s="65">
         <v>0</v>
@@ -3464,16 +3464,16 @@
         <v>0</v>
       </c>
       <c r="AI19" s="71">
-        <v>34</v>
+        <v>4389</v>
       </c>
       <c r="AJ19" s="73">
-        <v>25</v>
+        <v>3217</v>
       </c>
       <c r="AK19" s="75">
-        <v>10</v>
+        <v>1172</v>
       </c>
       <c r="AL19" s="77">
-        <v>3777</v>
+        <v>477681</v>
       </c>
     </row>
     <row r="20">
@@ -3481,58 +3481,58 @@
         <v>32</v>
       </c>
       <c r="B20" s="5">
-        <v>1045</v>
+        <v>147416</v>
       </c>
       <c r="C20" s="7">
-        <v>1030</v>
+        <v>143265</v>
       </c>
       <c r="D20" s="9">
-        <v>16</v>
+        <v>4151</v>
       </c>
       <c r="E20" s="11">
-        <v>2083</v>
+        <v>290055</v>
       </c>
       <c r="F20" s="13">
-        <v>2097</v>
+        <v>294872</v>
       </c>
       <c r="G20" s="15">
-        <v>-13</v>
+        <v>-4817</v>
       </c>
       <c r="H20" s="17">
-        <v>961</v>
+        <v>135021</v>
       </c>
       <c r="I20" s="19">
-        <v>943</v>
+        <v>131232</v>
       </c>
       <c r="J20" s="21">
-        <v>18</v>
+        <v>3789</v>
       </c>
       <c r="K20" s="23">
-        <v>275</v>
+        <v>38987</v>
       </c>
       <c r="L20" s="25">
-        <v>325</v>
+        <v>45695</v>
       </c>
       <c r="M20" s="27">
-        <v>-50</v>
+        <v>-6708</v>
       </c>
       <c r="N20" s="29">
-        <v>18</v>
+        <v>2539</v>
       </c>
       <c r="O20" s="31">
-        <v>48</v>
+        <v>6638</v>
       </c>
       <c r="P20" s="33">
-        <v>-30</v>
+        <v>-4098</v>
       </c>
       <c r="Q20" s="35">
-        <v>123</v>
+        <v>17061</v>
       </c>
       <c r="R20" s="37">
-        <v>100</v>
+        <v>13880</v>
       </c>
       <c r="S20" s="39">
-        <v>23</v>
+        <v>3181</v>
       </c>
       <c r="T20" s="41">
         <v>0</v>
@@ -3544,31 +3544,31 @@
         <v>0</v>
       </c>
       <c r="W20" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20" s="49">
-        <v>18</v>
+        <v>2582</v>
       </c>
       <c r="Y20" s="51">
-        <v>-18</v>
+        <v>-2581</v>
       </c>
       <c r="Z20" s="53">
-        <v>447</v>
+        <v>62685</v>
       </c>
       <c r="AA20" s="55">
-        <v>350</v>
+        <v>48151</v>
       </c>
       <c r="AB20" s="57">
-        <v>98</v>
+        <v>14534</v>
       </c>
       <c r="AC20" s="59">
-        <v>98</v>
+        <v>13748</v>
       </c>
       <c r="AD20" s="61">
-        <v>103</v>
+        <v>14287</v>
       </c>
       <c r="AE20" s="63">
-        <v>-5</v>
+        <v>-539</v>
       </c>
       <c r="AF20" s="65">
         <v>0</v>
@@ -3580,16 +3580,16 @@
         <v>0</v>
       </c>
       <c r="AI20" s="71">
-        <v>38</v>
+        <v>5162</v>
       </c>
       <c r="AJ20" s="73">
-        <v>58</v>
+        <v>8285</v>
       </c>
       <c r="AK20" s="75">
-        <v>-20</v>
+        <v>-3123</v>
       </c>
       <c r="AL20" s="77">
-        <v>4127</v>
+        <v>577654</v>
       </c>
     </row>
     <row r="21">
@@ -3597,94 +3597,94 @@
         <v>33</v>
       </c>
       <c r="B21" s="5">
-        <v>1796</v>
+        <v>236881</v>
       </c>
       <c r="C21" s="7">
-        <v>1763</v>
+        <v>232073</v>
       </c>
       <c r="D21" s="9">
-        <v>34</v>
+        <v>4809</v>
       </c>
       <c r="E21" s="11">
-        <v>3338</v>
+        <v>436300</v>
       </c>
       <c r="F21" s="13">
-        <v>3625</v>
+        <v>481456</v>
       </c>
       <c r="G21" s="15">
-        <v>-287</v>
+        <v>-45156</v>
       </c>
       <c r="H21" s="17">
-        <v>2019</v>
+        <v>267484</v>
       </c>
       <c r="I21" s="19">
-        <v>1687</v>
+        <v>216778</v>
       </c>
       <c r="J21" s="21">
-        <v>332</v>
+        <v>50706</v>
       </c>
       <c r="K21" s="23">
-        <v>248</v>
+        <v>32924</v>
       </c>
       <c r="L21" s="25">
-        <v>546</v>
+        <v>71099</v>
       </c>
       <c r="M21" s="27">
-        <v>-298</v>
+        <v>-38175</v>
       </c>
       <c r="N21" s="29">
-        <v>83</v>
+        <v>10844</v>
       </c>
       <c r="O21" s="31">
-        <v>34</v>
+        <v>4394</v>
       </c>
       <c r="P21" s="33">
-        <v>49</v>
+        <v>6450</v>
       </c>
       <c r="Q21" s="35">
-        <v>118</v>
+        <v>15514</v>
       </c>
       <c r="R21" s="37">
-        <v>211</v>
+        <v>26403</v>
       </c>
       <c r="S21" s="39">
-        <v>-93</v>
+        <v>-10889</v>
       </c>
       <c r="T21" s="41">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="U21" s="43">
         <v>0</v>
       </c>
       <c r="V21" s="45">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="W21" s="47">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="X21" s="49">
-        <v>21</v>
+        <v>2656</v>
       </c>
       <c r="Y21" s="51">
-        <v>-21</v>
+        <v>-2543</v>
       </c>
       <c r="Z21" s="53">
-        <v>1402</v>
+        <v>186323</v>
       </c>
       <c r="AA21" s="55">
-        <v>294</v>
+        <v>38713</v>
       </c>
       <c r="AB21" s="57">
-        <v>1107</v>
+        <v>147609</v>
       </c>
       <c r="AC21" s="59">
-        <v>167</v>
+        <v>21723</v>
       </c>
       <c r="AD21" s="61">
-        <v>579</v>
+        <v>73514</v>
       </c>
       <c r="AE21" s="63">
-        <v>-412</v>
+        <v>-51791</v>
       </c>
       <c r="AF21" s="65">
         <v>0</v>
@@ -3696,16 +3696,16 @@
         <v>0</v>
       </c>
       <c r="AI21" s="71">
-        <v>43</v>
+        <v>5729</v>
       </c>
       <c r="AJ21" s="73">
-        <v>123</v>
+        <v>16088</v>
       </c>
       <c r="AK21" s="75">
-        <v>-80</v>
+        <v>-10359</v>
       </c>
       <c r="AL21" s="77">
-        <v>7197</v>
+        <v>946394</v>
       </c>
     </row>
     <row r="22">
@@ -3713,94 +3713,94 @@
         <v>34</v>
       </c>
       <c r="B22" s="5">
-        <v>2068</v>
+        <v>301370</v>
       </c>
       <c r="C22" s="7">
-        <v>2387</v>
+        <v>343451</v>
       </c>
       <c r="D22" s="9">
-        <v>-320</v>
+        <v>-42081</v>
       </c>
       <c r="E22" s="11">
-        <v>3997</v>
+        <v>582978</v>
       </c>
       <c r="F22" s="13">
-        <v>3433</v>
+        <v>496508</v>
       </c>
       <c r="G22" s="15">
-        <v>564</v>
+        <v>86471</v>
       </c>
       <c r="H22" s="17">
-        <v>1558</v>
+        <v>224416</v>
       </c>
       <c r="I22" s="19">
-        <v>1797</v>
+        <v>267713</v>
       </c>
       <c r="J22" s="21">
-        <v>-239</v>
+        <v>-43297</v>
       </c>
       <c r="K22" s="23">
-        <v>275</v>
+        <v>39079</v>
       </c>
       <c r="L22" s="25">
-        <v>399</v>
+        <v>59519</v>
       </c>
       <c r="M22" s="27">
-        <v>-124</v>
+        <v>-20440</v>
       </c>
       <c r="N22" s="29">
-        <v>58</v>
+        <v>8458</v>
       </c>
       <c r="O22" s="31">
-        <v>132</v>
+        <v>19491</v>
       </c>
       <c r="P22" s="33">
-        <v>-74</v>
+        <v>-11033</v>
       </c>
       <c r="Q22" s="35">
-        <v>110</v>
+        <v>15496</v>
       </c>
       <c r="R22" s="37">
-        <v>195</v>
+        <v>29960</v>
       </c>
       <c r="S22" s="39">
-        <v>-85</v>
+        <v>-14464</v>
       </c>
       <c r="T22" s="41">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="U22" s="43">
-        <v>1</v>
+        <v>187</v>
       </c>
       <c r="V22" s="45">
-        <v>-1</v>
+        <v>-160</v>
       </c>
       <c r="W22" s="47">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="X22" s="49">
-        <v>11</v>
+        <v>1820</v>
       </c>
       <c r="Y22" s="51">
-        <v>-10</v>
+        <v>-1730</v>
       </c>
       <c r="Z22" s="53">
-        <v>1070</v>
+        <v>154873</v>
       </c>
       <c r="AA22" s="55">
-        <v>781</v>
+        <v>116563</v>
       </c>
       <c r="AB22" s="57">
-        <v>289</v>
+        <v>38309</v>
       </c>
       <c r="AC22" s="59">
-        <v>44</v>
+        <v>6392</v>
       </c>
       <c r="AD22" s="61">
-        <v>277</v>
+        <v>40172</v>
       </c>
       <c r="AE22" s="63">
-        <v>-233</v>
+        <v>-33780</v>
       </c>
       <c r="AF22" s="65">
         <v>0</v>
@@ -3812,16 +3812,16 @@
         <v>0</v>
       </c>
       <c r="AI22" s="71">
-        <v>80</v>
+        <v>11395</v>
       </c>
       <c r="AJ22" s="73">
-        <v>85</v>
+        <v>12487</v>
       </c>
       <c r="AK22" s="75">
-        <v>-5</v>
+        <v>-1092</v>
       </c>
       <c r="AL22" s="77">
-        <v>7703</v>
+        <v>1120160</v>
       </c>
     </row>
     <row r="23">
@@ -3829,94 +3829,94 @@
         <v>35</v>
       </c>
       <c r="B23" s="5">
-        <v>2295</v>
+        <v>437361</v>
       </c>
       <c r="C23" s="7">
-        <v>2697</v>
+        <v>523145</v>
       </c>
       <c r="D23" s="9">
-        <v>-402</v>
+        <v>-85784</v>
       </c>
       <c r="E23" s="11">
-        <v>7287</v>
+        <v>1413098</v>
       </c>
       <c r="F23" s="13">
-        <v>8246</v>
+        <v>1604280</v>
       </c>
       <c r="G23" s="15">
-        <v>-959</v>
+        <v>-191181</v>
       </c>
       <c r="H23" s="17">
-        <v>3973</v>
+        <v>790958</v>
       </c>
       <c r="I23" s="19">
-        <v>2521</v>
+        <v>495632</v>
       </c>
       <c r="J23" s="21">
-        <v>1452</v>
+        <v>295326</v>
       </c>
       <c r="K23" s="23">
-        <v>825</v>
+        <v>162977</v>
       </c>
       <c r="L23" s="25">
-        <v>1017</v>
+        <v>203142</v>
       </c>
       <c r="M23" s="27">
-        <v>-192</v>
+        <v>-40164</v>
       </c>
       <c r="N23" s="29">
-        <v>329</v>
+        <v>66903</v>
       </c>
       <c r="O23" s="31">
-        <v>116</v>
+        <v>22711</v>
       </c>
       <c r="P23" s="33">
-        <v>213</v>
+        <v>44191</v>
       </c>
       <c r="Q23" s="35">
-        <v>1149</v>
+        <v>235704</v>
       </c>
       <c r="R23" s="37">
-        <v>386</v>
+        <v>75099</v>
       </c>
       <c r="S23" s="39">
-        <v>763</v>
+        <v>160605</v>
       </c>
       <c r="T23" s="41">
         <v>0</v>
       </c>
       <c r="U23" s="43">
-        <v>2</v>
+        <v>343</v>
       </c>
       <c r="V23" s="45">
-        <v>-2</v>
+        <v>-343</v>
       </c>
       <c r="W23" s="47">
-        <v>3</v>
+        <v>588</v>
       </c>
       <c r="X23" s="49">
-        <v>40</v>
+        <v>7965</v>
       </c>
       <c r="Y23" s="51">
-        <v>-37</v>
+        <v>-7377</v>
       </c>
       <c r="Z23" s="53">
-        <v>1496</v>
+        <v>290633</v>
       </c>
       <c r="AA23" s="55">
-        <v>545</v>
+        <v>103829</v>
       </c>
       <c r="AB23" s="57">
-        <v>951</v>
+        <v>186804</v>
       </c>
       <c r="AC23" s="59">
-        <v>172</v>
+        <v>34153</v>
       </c>
       <c r="AD23" s="61">
-        <v>416</v>
+        <v>82544</v>
       </c>
       <c r="AE23" s="63">
-        <v>-245</v>
+        <v>-48390</v>
       </c>
       <c r="AF23" s="65">
         <v>0</v>
@@ -3928,16 +3928,16 @@
         <v>0</v>
       </c>
       <c r="AI23" s="71">
-        <v>92</v>
+        <v>17584</v>
       </c>
       <c r="AJ23" s="73">
-        <v>182</v>
+        <v>35944</v>
       </c>
       <c r="AK23" s="75">
-        <v>-90</v>
+        <v>-18360</v>
       </c>
       <c r="AL23" s="77">
-        <v>13646</v>
+        <v>2659001</v>
       </c>
     </row>
     <row r="24">
@@ -3945,94 +3945,94 @@
         <v>36</v>
       </c>
       <c r="B24" s="6">
-        <v>3072</v>
+        <v>576780</v>
       </c>
       <c r="C24" s="8">
-        <v>4198</v>
+        <v>792715</v>
       </c>
       <c r="D24" s="10">
-        <v>-1126</v>
+        <v>-215935</v>
       </c>
       <c r="E24" s="12">
-        <v>25028</v>
+        <v>4726363</v>
       </c>
       <c r="F24" s="14">
-        <v>27374</v>
+        <v>5169719</v>
       </c>
       <c r="G24" s="16">
-        <v>-2347</v>
+        <v>-443356</v>
       </c>
       <c r="H24" s="18">
-        <v>4426</v>
+        <v>827982</v>
       </c>
       <c r="I24" s="20">
-        <v>975</v>
+        <v>173488</v>
       </c>
       <c r="J24" s="22">
-        <v>3451</v>
+        <v>654494</v>
       </c>
       <c r="K24" s="24">
-        <v>138</v>
+        <v>25650</v>
       </c>
       <c r="L24" s="26">
-        <v>260</v>
+        <v>47877</v>
       </c>
       <c r="M24" s="28">
-        <v>-122</v>
+        <v>-22227</v>
       </c>
       <c r="N24" s="30">
-        <v>314</v>
+        <v>58330</v>
       </c>
       <c r="O24" s="32">
-        <v>62</v>
+        <v>11268</v>
       </c>
       <c r="P24" s="34">
-        <v>252</v>
+        <v>47062</v>
       </c>
       <c r="Q24" s="36">
-        <v>654</v>
+        <v>122357</v>
       </c>
       <c r="R24" s="38">
-        <v>190</v>
+        <v>33595</v>
       </c>
       <c r="S24" s="40">
-        <v>465</v>
+        <v>88762</v>
       </c>
       <c r="T24" s="42">
-        <v>2</v>
+        <v>462</v>
       </c>
       <c r="U24" s="44">
-        <v>3</v>
+        <v>589</v>
       </c>
       <c r="V24" s="46">
-        <v>-1</v>
+        <v>-127</v>
       </c>
       <c r="W24" s="48">
-        <v>33</v>
+        <v>5869</v>
       </c>
       <c r="X24" s="50">
-        <v>29</v>
+        <v>5446</v>
       </c>
       <c r="Y24" s="52">
-        <v>4</v>
+        <v>422</v>
       </c>
       <c r="Z24" s="54">
-        <v>2948</v>
+        <v>545545</v>
       </c>
       <c r="AA24" s="56">
-        <v>281</v>
+        <v>46234</v>
       </c>
       <c r="AB24" s="58">
-        <v>2667</v>
+        <v>499312</v>
       </c>
       <c r="AC24" s="60">
-        <v>337</v>
+        <v>69769</v>
       </c>
       <c r="AD24" s="62">
-        <v>151</v>
+        <v>28479</v>
       </c>
       <c r="AE24" s="64">
-        <v>186</v>
+        <v>41290</v>
       </c>
       <c r="AF24" s="66">
         <v>0</v>
@@ -4044,16 +4044,16 @@
         <v>0</v>
       </c>
       <c r="AI24" s="72">
-        <v>180</v>
+        <v>34679</v>
       </c>
       <c r="AJ24" s="74">
-        <v>157</v>
+        <v>29881</v>
       </c>
       <c r="AK24" s="76">
-        <v>22</v>
+        <v>4798</v>
       </c>
       <c r="AL24" s="78">
-        <v>32705</v>
+        <v>6165804</v>
       </c>
     </row>
   </sheetData>
